--- a/supplemental_materials/supplemental_file_3.xlsx
+++ b/supplemental_materials/supplemental_file_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Max_Schubert/Dropbox/RLR_e.coli_dropbox/rlr_git/supplemental_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE54117-8035-D549-85E4-0A106E75549D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C58AFB4-7392-D244-B166-3EA6A517E9EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>H8</t>
   </si>
   <si>
-    <t>PF020</t>
-  </si>
-  <si>
     <t>∆mutS ‚ ∆recJ‚ ∆sbcB, + CspRecT</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>fraction_edited</t>
+  </si>
+  <si>
+    <t>CspRecT</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1467,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="D70" sqref="D70:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1506,7 +1506,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1540,7 +1540,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1557,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1574,7 +1574,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1591,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1608,7 +1608,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1625,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1642,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1659,7 +1659,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1676,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1693,7 +1693,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1727,7 +1727,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1744,7 +1744,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1778,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1795,7 +1795,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1812,7 +1812,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1829,7 +1829,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1863,7 +1863,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1880,7 +1880,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1897,7 +1897,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1914,7 +1914,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1931,7 +1931,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1965,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1982,7 +1982,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1999,7 +1999,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2016,7 +2016,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2033,12 +2033,12 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -2050,12 +2050,12 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -2067,12 +2067,12 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -2084,12 +2084,12 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -2101,12 +2101,12 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2118,12 +2118,12 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2135,12 +2135,12 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2152,12 +2152,12 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -2169,12 +2169,12 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -2186,12 +2186,12 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -2203,12 +2203,12 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -2220,12 +2220,12 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -2237,12 +2237,12 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -2254,12 +2254,12 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -2271,12 +2271,12 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -2288,12 +2288,12 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -2305,12 +2305,12 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2322,12 +2322,12 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2339,12 +2339,12 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2356,12 +2356,12 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2373,12 +2373,12 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2390,12 +2390,12 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2407,12 +2407,12 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2424,12 +2424,12 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2441,12 +2441,12 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -2458,12 +2458,12 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -2475,12 +2475,12 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -2492,12 +2492,12 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2509,12 +2509,12 @@
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2526,12 +2526,12 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -2543,12 +2543,12 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2560,12 +2560,12 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2577,12 +2577,12 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2594,12 +2594,12 @@
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2611,12 +2611,12 @@
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2628,12 +2628,12 @@
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2645,12 +2645,12 @@
         <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2659,7 +2659,7 @@
         <v>0.844984438592291</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2676,7 +2676,7 @@
         <v>0.85088170274021901</v>
       </c>
       <c r="D71" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E71" t="s">
         <v>21</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2693,7 +2693,7 @@
         <v>0.82264361405465702</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E72" t="s">
         <v>20</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2710,7 +2710,7 @@
         <v>0.84529070056104505</v>
       </c>
       <c r="D73" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2727,7 +2727,7 @@
         <v>0.81406456810726802</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2744,7 +2744,7 @@
         <v>0.85009398496240596</v>
       </c>
       <c r="D75" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E75" t="s">
         <v>17</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2761,7 +2761,7 @@
         <v>0.84937542651989495</v>
       </c>
       <c r="D76" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2778,7 +2778,7 @@
         <v>0.84486368686437097</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -2795,15 +2795,15 @@
         <v>0.70608882634749504</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -2812,15 +2812,15 @@
         <v>0.68284452530113404</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -2829,15 +2829,15 @@
         <v>0.70397889499257005</v>
       </c>
       <c r="D80" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -2846,15 +2846,15 @@
         <v>0.69858697727706698</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -2863,15 +2863,15 @@
         <v>0.70239808153477201</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -2880,15 +2880,15 @@
         <v>0.70515084173034204</v>
       </c>
       <c r="D83" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -2897,15 +2897,15 @@
         <v>0.70141648985446603</v>
       </c>
       <c r="D84" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -2914,7 +2914,7 @@
         <v>0.70163794267200696</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
         <v>31</v>
@@ -3194,5 +3194,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>